--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ricky\Informatika\7Smester7\Pembelajaran Mesin\TugasPraktikumML-18_247-18_249\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8078C13E-FFA8-4BB1-8F9B-6A4A0D576D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1409BBAC-40AA-4CAD-BD6D-11A1CB526009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,12 +43,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Modelling CNN - Modul 2 Skema 1</t>
-  </si>
-  <si>
-    <t>Modelling CNN - Modul 2 Skema 2</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -76,7 +70,13 @@
     <t>Performa model buruk, salah satu faktor adalah data yang imbalanced</t>
   </si>
   <si>
-    <t>Preprocessing - Modul 2</t>
+    <t>Preprocessing - Skenario Praktikum Modul 2</t>
+  </si>
+  <si>
+    <t>Modelling CNN - Skenario Praktikum Modul 2 Skema 1</t>
+  </si>
+  <si>
+    <t>Modelling CNN - Skenario Praktikum Modul 2 Skema 2</t>
   </si>
 </sst>
 </file>
@@ -269,41 +269,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,7 +523,7 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -542,40 +542,40 @@
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="15"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>18</v>
+      <c r="B3" s="10"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -590,15 +590,15 @@
         <v>44495</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>7</v>
+    </row>
+    <row r="5" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -613,14 +613,14 @@
         <v>44495</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -636,15 +636,15 @@
         <v>44495</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -659,14 +659,14 @@
         <v>44495</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -682,14 +682,14 @@
         <v>44495</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
@@ -697,18 +697,18 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ricky\Informatika\7Smester7\Pembelajaran Mesin\TugasPraktikumML-18_247-18_249\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392DE55E-7D1D-4405-B1FB-8AD0860C1A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA3772F-E0A7-48A7-AD58-7BBBB196E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -412,25 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,6 +420,24 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,21 +657,21 @@
   <dimension ref="A1:Z1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" style="14" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="14"/>
+    <col min="1" max="1" width="9.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" style="11" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -704,25 +704,25 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1"/>
@@ -746,12 +746,12 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="17"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -990,15 +990,21 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3">
+        <v>44508</v>
+      </c>
       <c r="E9" s="3">
         <v>44510</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3">
+        <v>44509</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1171,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
         <v>15</v>
@@ -1205,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
         <v>15</v>
@@ -1239,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
         <v>15</v>
@@ -1273,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
         <v>15</v>
@@ -1307,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="19"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
         <v>15</v>
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
         <v>15</v>
@@ -1375,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
         <v>15</v>
@@ -1409,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
         <v>15</v>
@@ -1443,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
         <v>15</v>
@@ -1477,7 +1483,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
         <v>15</v>
@@ -1504,10 +1510,10 @@
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="19"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ricky\Informatika\7Smester7\Pembelajaran Mesin\TugasPraktikumML-18_247-18_249\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA3772F-E0A7-48A7-AD58-7BBBB196E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C765BB-756D-4734-B4F2-90A434461826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -657,7 +657,7 @@
   <dimension ref="A1:Z1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1032,15 +1032,21 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3">
+        <v>44509</v>
+      </c>
       <c r="E10" s="3">
         <v>44510</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3">
+        <v>44510</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1068,15 +1074,21 @@
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="3">
+        <v>44509</v>
+      </c>
       <c r="E11" s="3">
         <v>44510</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="3">
+        <v>44510</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1104,15 +1116,21 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="3">
+        <v>44509</v>
+      </c>
       <c r="E12" s="3">
         <v>44510</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="3">
+        <v>44510</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1140,15 +1158,21 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="3">
+        <v>44509</v>
+      </c>
       <c r="E13" s="3">
         <v>44510</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="3">
+        <v>44510</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1177,10 +1201,12 @@
         <v>8</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13">
+        <v>44533</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="1"/>
@@ -1211,10 +1237,12 @@
         <v>11</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13">
+        <v>44533</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
@@ -1245,10 +1273,12 @@
         <v>11</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13">
+        <v>44533</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
@@ -1279,10 +1309,12 @@
         <v>11</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="13">
+        <v>44533</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
@@ -1313,10 +1345,12 @@
         <v>11</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="13">
+        <v>44533</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="1"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Modelling CNN - Skenario Praktikum Modul 4 - Skema 1</t>
-  </si>
-  <si>
-    <t>ON GOING</t>
   </si>
   <si>
     <t>Model Evaluation - Skenario Praktikum Modul 4 - Skema 1</t>
@@ -341,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -383,6 +380,9 @@
     </xf>
     <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1164,7 +1164,9 @@
       <c r="G14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1192,15 +1194,21 @@
       <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="13">
+        <v>44532.0</v>
+      </c>
       <c r="E15" s="14">
         <v>44533.0</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
-        <v>25</v>
+      <c r="F15" s="14">
+        <v>44533.0</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="G15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1223,20 +1231,26 @@
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="13">
+        <v>44532.0</v>
+      </c>
       <c r="E16" s="14">
         <v>44533.0</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16" t="s">
-        <v>25</v>
+      <c r="F16" s="14">
+        <v>44533.0</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="G16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1259,20 +1273,26 @@
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="13">
+        <v>44532.0</v>
+      </c>
       <c r="E17" s="14">
         <v>44533.0</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
-        <v>25</v>
+      <c r="F17" s="14">
+        <v>44533.0</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="G17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1295,20 +1315,26 @@
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="13">
+        <v>44532.0</v>
+      </c>
       <c r="E18" s="14">
         <v>44533.0</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16" t="s">
-        <v>25</v>
+      <c r="F18" s="14">
+        <v>44533.0</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="G18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1331,16 +1357,16 @@
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16" t="s">
-        <v>30</v>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="1"/>
@@ -1365,16 +1391,16 @@
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16" t="s">
-        <v>30</v>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="1"/>
@@ -1399,16 +1425,16 @@
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16" t="s">
-        <v>30</v>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="1"/>
@@ -1433,16 +1459,16 @@
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="s">
-        <v>30</v>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="1"/>
@@ -1467,16 +1493,16 @@
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16" t="s">
-        <v>30</v>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="1"/>
@@ -1500,12 +1526,12 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="12"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1528,13 +1554,13 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Preprocessing - Skenario Praktikum Modul 5</t>
   </si>
   <si>
-    <t>WAITING</t>
-  </si>
-  <si>
     <t>Modelling CNN - Skenario Praktikum Modul 5 - Skema 1</t>
   </si>
   <si>
@@ -124,8 +121,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -338,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -384,11 +382,17 @@
     <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1362,13 +1366,21 @@
       <c r="C19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>29</v>
+      <c r="D19" s="17">
+        <v>44545.0</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="E19" s="17">
+        <v>44547.0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>44546.0</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1391,18 +1403,26 @@
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="C20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="17">
+        <v>44545.0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>44547.0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>44546.0</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1425,18 +1445,26 @@
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>8</v>
+      <c r="C21" s="18" t="s">
+        <v>12</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
-        <v>29</v>
+      <c r="D21" s="17">
+        <v>44545.0</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="E21" s="17">
+        <v>44547.0</v>
+      </c>
+      <c r="F21" s="17">
+        <v>44546.0</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1459,18 +1487,26 @@
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
-        <v>29</v>
+      <c r="D22" s="17">
+        <v>44546.0</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="E22" s="17">
+        <v>44547.0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>44547.0</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1493,18 +1529,26 @@
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
-        <v>29</v>
+      <c r="D23" s="17">
+        <v>44546.0</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="E23" s="17">
+        <v>44547.0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>44547.0</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1526,12 +1570,12 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="12"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1554,13 +1598,13 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ricky\Informatika\7Smester7\Pembelajaran Mesin\TugasPraktikumML-18_247-18_249\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C765BB-756D-4734-B4F2-90A434461826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB0744-12B5-483C-89B7-238740DF8954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>WAITING</t>
-  </si>
-  <si>
-    <t>ON GOING</t>
   </si>
   <si>
     <t>Preprocessing - Skenario Praktikum Modul 4</t>
@@ -657,7 +654,7 @@
   <dimension ref="A1:Z1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -817,7 +814,7 @@
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -859,7 +856,7 @@
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -901,7 +898,7 @@
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -943,7 +940,7 @@
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -1027,7 +1024,7 @@
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1069,7 +1066,7 @@
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1111,7 +1108,7 @@
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1153,7 +1150,7 @@
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1195,20 +1192,26 @@
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="13">
+        <v>44531</v>
+      </c>
       <c r="E14" s="13">
         <v>44533</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>16</v>
+      <c r="F14" s="13">
+        <v>44501</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1231,20 +1234,26 @@
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="13">
+        <v>44531</v>
+      </c>
       <c r="E15" s="13">
         <v>44533</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>16</v>
+      <c r="F15" s="13">
+        <v>44533</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1267,20 +1276,26 @@
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="13">
+        <v>44531</v>
+      </c>
       <c r="E16" s="13">
         <v>44533</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
+      <c r="F16" s="13">
+        <v>44533</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1303,20 +1318,26 @@
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="13">
+        <v>44531</v>
+      </c>
       <c r="E17" s="13">
         <v>44533</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>16</v>
+      <c r="F17" s="13">
+        <v>44533</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="G17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1339,20 +1360,26 @@
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="13">
+        <v>44531</v>
+      </c>
       <c r="E18" s="13">
         <v>44533</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>16</v>
+      <c r="F18" s="13">
+        <v>44533</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1375,7 +1402,7 @@
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -1409,7 +1436,7 @@
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -1443,7 +1470,7 @@
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -1477,7 +1504,7 @@
     <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
@@ -1511,7 +1538,7 @@
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ricky\Informatika\7Smester7\Pembelajaran Mesin\TugasPraktikumML-18_247-18_249\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB0744-12B5-483C-89B7-238740DF8954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339C22F3-8655-4BE5-8A01-6A2C3722D0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Preprocessing - Skenario Praktikum Modul 3</t>
-  </si>
-  <si>
-    <t>WAITING</t>
   </si>
   <si>
     <t>Preprocessing - Skenario Praktikum Modul 4</t>
@@ -128,6 +125,12 @@
   <si>
     <t>Model Evaluation - Skenario Praktikum Modul 5 - Skema 2</t>
   </si>
+  <si>
+    <t>Skenario Praktikum Modul 6 - Back End Flask</t>
+  </si>
+  <si>
+    <t>Skenario Praktikum Modul 6 - Front End Flask</t>
+  </si>
 </sst>
 </file>
 
@@ -158,24 +161,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -186,74 +176,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -278,7 +201,85 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -293,6 +294,34 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -303,21 +332,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -326,7 +342,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -341,7 +357,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -350,52 +366,93 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -404,36 +461,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,24 +711,24 @@
   <dimension ref="A1:Z1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" style="11" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="11"/>
+    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -701,25 +758,25 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1"/>
@@ -741,15 +798,15 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -771,25 +828,25 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="20">
         <v>44495</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="20">
         <v>44495</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="20">
         <v>44495</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="1"/>
@@ -813,8 +870,8 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -831,7 +888,7 @@
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="1"/>
@@ -855,8 +912,8 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -873,7 +930,7 @@
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="1"/>
@@ -897,8 +954,8 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -915,7 +972,7 @@
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="1"/>
@@ -939,8 +996,8 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -957,7 +1014,7 @@
       <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="1"/>
@@ -981,7 +1038,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -999,7 +1056,7 @@
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="1"/>
@@ -1023,8 +1080,8 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1041,7 +1098,7 @@
       <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="1"/>
@@ -1065,8 +1122,8 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1083,7 +1140,7 @@
       <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="1"/>
@@ -1107,8 +1164,8 @@
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1125,7 +1182,7 @@
       <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="1"/>
@@ -1149,8 +1206,8 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
+      <c r="B13" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1167,7 +1224,7 @@
       <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="1"/>
@@ -1191,25 +1248,25 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="6">
         <v>44531</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="6">
         <v>44533</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="6">
         <v>44501</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="1"/>
@@ -1233,25 +1290,25 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
+      <c r="B15" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="6">
         <v>44531</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="6">
         <v>44533</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="6">
         <v>44533</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="1"/>
@@ -1275,25 +1332,25 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
+      <c r="B16" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="6">
         <v>44531</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="6">
         <v>44533</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="6">
         <v>44533</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="1"/>
@@ -1317,25 +1374,25 @@
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
+      <c r="B17" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="6">
         <v>44531</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="6">
         <v>44533</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="6">
         <v>44533</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="1"/>
@@ -1359,25 +1416,25 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="6">
         <v>44531</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="6">
         <v>44533</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="6">
         <v>44533</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="1"/>
@@ -1401,19 +1458,27 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
+      <c r="B19" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>15</v>
+      <c r="D19" s="6">
+        <v>44545</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="E19" s="6">
+        <v>44547</v>
+      </c>
+      <c r="F19" s="6">
+        <v>44546</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1435,19 +1500,27 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
+      <c r="B20" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>15</v>
+      <c r="D20" s="6">
+        <v>44545</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="E20" s="6">
+        <v>44547</v>
+      </c>
+      <c r="F20" s="6">
+        <v>44546</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1469,19 +1542,27 @@
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
+      <c r="B21" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>15</v>
+      <c r="D21" s="6">
+        <v>44545</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="E21" s="6">
+        <v>44547</v>
+      </c>
+      <c r="F21" s="6">
+        <v>44546</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1503,19 +1584,27 @@
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>32</v>
+      <c r="B22" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>15</v>
+      <c r="D22" s="6">
+        <v>44546</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="E22" s="6">
+        <v>44547</v>
+      </c>
+      <c r="F22" s="6">
+        <v>44547</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1537,19 +1626,27 @@
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
+      <c r="B23" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>15</v>
+      <c r="D23" s="6">
+        <v>44546</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="E23" s="6">
+        <v>44547</v>
+      </c>
+      <c r="F23" s="6">
+        <v>44547</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1571,13 +1668,27 @@
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44556</v>
+      </c>
+      <c r="E24" s="6">
+        <v>44562</v>
+      </c>
+      <c r="F24" s="6">
+        <v>44562</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1597,15 +1708,29 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
+      <c r="B25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="17">
+        <v>44556</v>
+      </c>
+      <c r="E25" s="17">
+        <v>44562</v>
+      </c>
+      <c r="F25" s="17">
+        <v>44562</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
